--- a/Data Sets/Covid_Anx.xlsx
+++ b/Data Sets/Covid_Anx.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t xml:space="preserve">Time Period of Lockdown</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t xml:space="preserve">Unsafe / Very unsafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Not, My work is being affected</t>
@@ -636,7 +633,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,7 +821,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -939,12 +936,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,7 +1103,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1133,35 +1134,19 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
@@ -1267,7 +1252,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A8"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1282,22 +1267,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
@@ -1384,7 +1365,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:A8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1397,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
